--- a/nodes_source_analyses/energy/energy_heat_solar_thermal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_heat_solar_thermal.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4480E1AC-98A6-A24D-AF24-5ED285C4FF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F34AB83-EAB9-654D-9089-71829EDBFE0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="460" windowWidth="25120" windowHeight="17540" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -45,9 +45,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -58,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="128">
   <si>
     <t>Source</t>
   </si>
@@ -440,6 +438,9 @@
   </si>
   <si>
     <t>Panel power</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1333,7 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1632,6 +1633,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="258">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2743,8 +2745,8 @@
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -3164,15 +3166,16 @@
         <v>2</v>
       </c>
       <c r="E25" s="39">
-        <f>'Research data'!G21</f>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="29"/>
-      <c r="I25" s="39"/>
+      <c r="I25" s="197" t="s">
+        <v>127</v>
+      </c>
       <c r="J25" s="78"/>
     </row>
     <row r="26" spans="2:10">
@@ -4356,7 +4359,7 @@
   </sheetPr>
   <dimension ref="B1:AA130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="108" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="108" workbookViewId="0">
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
